--- a/survey_questions_temp.xlsx
+++ b/survey_questions_temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4eeea2119f37a1e9/My Documents/Websites/mada-whale-fr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{D1D1AADA-C8E0-4EA8-94B9-A9AB95E99A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19D5033A-85EE-4AF0-8669-6F0D38E3132C}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="8_{D1D1AADA-C8E0-4EA8-94B9-A9AB95E99A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDDFEA2F-0995-4E96-8C6F-F06628EB3C3F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="444">
   <si>
     <t>type</t>
   </si>
@@ -319,15 +319,6 @@
   </si>
   <si>
     <t>Taille</t>
-  </si>
-  <si>
-    <t>select_one balise</t>
-  </si>
-  <si>
-    <t>balise</t>
-  </si>
-  <si>
-    <t>Est-ce que ce requin porte une balise</t>
   </si>
   <si>
     <t>select_one scars</t>
@@ -1346,10 +1337,25 @@
     <t>Allez-vous effectuer de la recherche scientifique additionnelle ?</t>
   </si>
   <si>
-    <t>balise_deployed</t>
-  </si>
-  <si>
-    <t>Déployer une balise?</t>
+    <t>Est-ce que ce requin porte une balise ?</t>
+  </si>
+  <si>
+    <t>Déployer une balise ?</t>
+  </si>
+  <si>
+    <t>tag_deployed</t>
+  </si>
+  <si>
+    <t>tag_no</t>
+  </si>
+  <si>
+    <t>Numero de balise</t>
+  </si>
+  <si>
+    <t>${tag}='no'</t>
+  </si>
+  <si>
+    <t>${tag_deployed}='yes'</t>
   </si>
 </sst>
 </file>
@@ -1695,10 +1701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L76"/>
+  <dimension ref="A1:L77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1832,13 +1838,13 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B9" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C9" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1901,7 +1907,7 @@
         <v>26</v>
       </c>
       <c r="H12" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="I12" t="s">
         <v>41</v>
@@ -1930,7 +1936,7 @@
         <v>26</v>
       </c>
       <c r="H13" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="I13" t="s">
         <v>46</v>
@@ -2009,7 +2015,7 @@
         <v>67</v>
       </c>
       <c r="H18" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2026,7 +2032,7 @@
         <v>64</v>
       </c>
       <c r="H19" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2071,7 +2077,7 @@
         <v>64</v>
       </c>
       <c r="H22" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -2183,16 +2189,16 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B30" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C30" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H30" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2200,13 +2206,13 @@
         <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C31" t="s">
         <v>25</v>
       </c>
       <c r="H31" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -2223,7 +2229,7 @@
         <v>64</v>
       </c>
       <c r="H32" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2246,7 +2252,7 @@
         <v>30</v>
       </c>
       <c r="H33" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -2266,227 +2272,221 @@
         <v>26</v>
       </c>
       <c r="H34" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>99</v>
+        <v>422</v>
       </c>
       <c r="B35" t="s">
-        <v>100</v>
+        <v>395</v>
       </c>
       <c r="C35" t="s">
-        <v>101</v>
+        <v>437</v>
       </c>
       <c r="H35" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B36" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C36" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H36" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>440</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
-      </c>
-      <c r="E37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" t="s">
-        <v>26</v>
+        <v>441</v>
       </c>
       <c r="H37" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="B38" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C38" t="s">
-        <v>106</v>
+        <v>101</v>
+      </c>
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" t="s">
+        <v>26</v>
       </c>
       <c r="H38" t="s">
-        <v>107</v>
-      </c>
-      <c r="L38" t="s">
-        <v>108</v>
+        <v>431</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>109</v>
+        <v>102</v>
+      </c>
+      <c r="C39" t="s">
+        <v>103</v>
       </c>
       <c r="H39" t="s">
-        <v>107</v>
-      </c>
-      <c r="K39" t="s">
-        <v>60</v>
+        <v>104</v>
+      </c>
+      <c r="L39" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s">
-        <v>111</v>
-      </c>
-      <c r="C40" t="s">
-        <v>112</v>
-      </c>
-      <c r="G40" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="H40" t="s">
-        <v>107</v>
+        <v>104</v>
+      </c>
+      <c r="K40" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B41" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C41" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G41" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H41" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="B42" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C42" t="s">
-        <v>118</v>
+        <v>113</v>
+      </c>
+      <c r="G42" t="s">
+        <v>110</v>
       </c>
       <c r="H42" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>119</v>
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" t="s">
+        <v>115</v>
+      </c>
+      <c r="H43" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>120</v>
-      </c>
-      <c r="B44" t="s">
-        <v>121</v>
-      </c>
-      <c r="C44" t="s">
-        <v>122</v>
-      </c>
-      <c r="G44" t="s">
-        <v>30</v>
-      </c>
-      <c r="H44" t="s">
-        <v>434</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B45" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C45" t="s">
-        <v>125</v>
-      </c>
-      <c r="E45" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" t="s">
-        <v>26</v>
+        <v>119</v>
+      </c>
+      <c r="G45" t="s">
+        <v>30</v>
       </c>
       <c r="H45" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B46" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C46" t="s">
-        <v>128</v>
-      </c>
-      <c r="G46" t="s">
-        <v>30</v>
+        <v>122</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" t="s">
+        <v>26</v>
       </c>
       <c r="H46" t="s">
-        <v>129</v>
+        <v>431</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="B47" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C47" t="s">
-        <v>131</v>
+        <v>125</v>
+      </c>
+      <c r="G47" t="s">
+        <v>30</v>
       </c>
       <c r="H47" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C48" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H48" t="s">
-        <v>434</v>
-      </c>
-      <c r="I48" t="s">
-        <v>134</v>
-      </c>
-      <c r="J48" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2494,70 +2494,76 @@
         <v>37</v>
       </c>
       <c r="B49" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C49" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="H49" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I49" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J49" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="B50" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C50" t="s">
-        <v>140</v>
-      </c>
-      <c r="G50" t="s">
-        <v>30</v>
+        <v>134</v>
       </c>
       <c r="H50" t="s">
-        <v>434</v>
+        <v>431</v>
+      </c>
+      <c r="I50" t="s">
+        <v>131</v>
+      </c>
+      <c r="J50" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B51" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C51" t="s">
-        <v>143</v>
-      </c>
-      <c r="E51" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" t="s">
-        <v>26</v>
+        <v>137</v>
+      </c>
+      <c r="G51" t="s">
+        <v>30</v>
       </c>
       <c r="H51" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="B52" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C52" t="s">
-        <v>145</v>
+        <v>140</v>
+      </c>
+      <c r="E52" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" t="s">
+        <v>26</v>
       </c>
       <c r="H52" t="s">
-        <v>146</v>
+        <v>431</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -2565,47 +2571,41 @@
         <v>23</v>
       </c>
       <c r="B53" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C53" t="s">
-        <v>148</v>
-      </c>
-      <c r="D53" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="H53" t="s">
-        <v>434</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="B54" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C54" t="s">
-        <v>152</v>
-      </c>
-      <c r="E54" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" t="s">
-        <v>26</v>
+        <v>145</v>
+      </c>
+      <c r="D54" t="s">
+        <v>146</v>
       </c>
       <c r="H54" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B55" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C55" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E55" t="s">
         <v>14</v>
@@ -2614,260 +2614,257 @@
         <v>26</v>
       </c>
       <c r="H55" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="B56" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C56" t="s">
-        <v>157</v>
+        <v>152</v>
+      </c>
+      <c r="E56" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" t="s">
+        <v>26</v>
       </c>
       <c r="H56" t="s">
-        <v>158</v>
+        <v>431</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B57" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C57" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="H57" t="s">
-        <v>158</v>
-      </c>
-      <c r="I57" t="s">
-        <v>160</v>
-      </c>
-      <c r="J57" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B58" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C58" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="H58" t="s">
-        <v>164</v>
+        <v>155</v>
+      </c>
+      <c r="I58" t="s">
+        <v>157</v>
+      </c>
+      <c r="J58" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B59" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C59" t="s">
-        <v>166</v>
+        <v>160</v>
+      </c>
+      <c r="H59" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>119</v>
+        <v>20</v>
+      </c>
+      <c r="B60" t="s">
+        <v>162</v>
+      </c>
+      <c r="C60" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>20</v>
-      </c>
-      <c r="B61" t="s">
-        <v>167</v>
-      </c>
-      <c r="C61" t="s">
-        <v>168</v>
-      </c>
-      <c r="H61" t="s">
-        <v>431</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>169</v>
+        <v>20</v>
       </c>
       <c r="B62" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C62" t="s">
-        <v>171</v>
-      </c>
-      <c r="E62" t="s">
-        <v>14</v>
-      </c>
-      <c r="F62" t="s">
-        <v>26</v>
+        <v>165</v>
       </c>
       <c r="H62" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>37</v>
+        <v>166</v>
       </c>
       <c r="B63" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C63" t="s">
-        <v>173</v>
-      </c>
-      <c r="D63" t="s">
-        <v>174</v>
+        <v>168</v>
+      </c>
+      <c r="E63" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" t="s">
+        <v>26</v>
       </c>
       <c r="H63" t="s">
-        <v>435</v>
-      </c>
-      <c r="I63" t="s">
-        <v>175</v>
-      </c>
-      <c r="J63" t="s">
-        <v>176</v>
+        <v>428</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>177</v>
+        <v>37</v>
       </c>
       <c r="B64" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C64" t="s">
-        <v>179</v>
-      </c>
-      <c r="G64" t="s">
-        <v>30</v>
+        <v>170</v>
+      </c>
+      <c r="D64" t="s">
+        <v>171</v>
       </c>
       <c r="H64" t="s">
-        <v>180</v>
+        <v>432</v>
+      </c>
+      <c r="I64" t="s">
+        <v>172</v>
+      </c>
+      <c r="J64" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B65" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C65" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G65" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="H65" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B66" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C66" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G66" t="s">
-        <v>2</v>
+        <v>181</v>
+      </c>
+      <c r="H66" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B67" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C67" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="G67" t="s">
-        <v>189</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>182</v>
+      </c>
+      <c r="B68" t="s">
+        <v>184</v>
+      </c>
+      <c r="C68" t="s">
         <v>185</v>
       </c>
-      <c r="B68" t="s">
-        <v>190</v>
-      </c>
-      <c r="C68" t="s">
-        <v>191</v>
-      </c>
       <c r="G68" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B69" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C69" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G69" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B70" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C70" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G70" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>196</v>
+        <v>182</v>
+      </c>
+      <c r="B71" t="s">
+        <v>191</v>
+      </c>
+      <c r="C71" t="s">
+        <v>192</v>
+      </c>
+      <c r="G71" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>37</v>
-      </c>
-      <c r="B72" t="s">
-        <v>197</v>
-      </c>
-      <c r="C72" t="s">
-        <v>198</v>
-      </c>
-      <c r="D72" t="s">
-        <v>199</v>
-      </c>
-      <c r="H72" t="s">
-        <v>200</v>
-      </c>
-      <c r="I72" t="s">
-        <v>201</v>
-      </c>
-      <c r="J72" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -2875,22 +2872,22 @@
         <v>37</v>
       </c>
       <c r="B73" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C73" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="D73" t="s">
-        <v>40</v>
+        <v>196</v>
       </c>
       <c r="H73" t="s">
-        <v>431</v>
+        <v>197</v>
       </c>
       <c r="I73" t="s">
-        <v>41</v>
+        <v>198</v>
       </c>
       <c r="J73" t="s">
-        <v>42</v>
+        <v>199</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -2898,22 +2895,22 @@
         <v>37</v>
       </c>
       <c r="B74" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C74" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D74" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H74" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="I74" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J74" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -2921,30 +2918,53 @@
         <v>37</v>
       </c>
       <c r="B75" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C75" t="s">
-        <v>208</v>
+        <v>203</v>
+      </c>
+      <c r="D75" t="s">
+        <v>45</v>
       </c>
       <c r="H75" t="s">
-        <v>431</v>
+        <v>428</v>
+      </c>
+      <c r="I75" t="s">
+        <v>46</v>
+      </c>
+      <c r="J75" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>37</v>
+      </c>
+      <c r="B76" t="s">
+        <v>204</v>
+      </c>
+      <c r="C76" t="s">
+        <v>205</v>
+      </c>
+      <c r="H76" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>23</v>
       </c>
-      <c r="B76" t="s">
-        <v>209</v>
-      </c>
-      <c r="C76" t="s">
-        <v>210</v>
-      </c>
-      <c r="D76" t="s">
-        <v>211</v>
-      </c>
-      <c r="H76" t="s">
-        <v>436</v>
+      <c r="B77" t="s">
+        <v>206</v>
+      </c>
+      <c r="C77" t="s">
+        <v>207</v>
+      </c>
+      <c r="D77" t="s">
+        <v>208</v>
+      </c>
+      <c r="H77" t="s">
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -2954,17 +2974,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C140"/>
+  <dimension ref="A1:C138"/>
   <sheetViews>
     <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A139" sqref="A139"/>
+      <selection activeCell="A136" sqref="A136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2978,10 +2998,10 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2989,10 +3009,10 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3000,10 +3020,10 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3011,10 +3031,10 @@
         <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3022,10 +3042,10 @@
         <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3033,10 +3053,10 @@
         <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3044,10 +3064,10 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3055,10 +3075,10 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -3066,10 +3086,10 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C10" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -3077,10 +3097,10 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -3088,10 +3108,10 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -3099,10 +3119,10 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C13" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -3110,10 +3130,10 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C14" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -3121,10 +3141,10 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C15" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -3132,10 +3152,10 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C16" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -3143,10 +3163,10 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C17" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -3154,76 +3174,76 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C18" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B19" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C19" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B20" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C20" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B21" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C21" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B22" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C22" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B23" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C23" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B24" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C24" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -3231,10 +3251,10 @@
         <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C25" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -3242,10 +3262,10 @@
         <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C26" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -3253,274 +3273,274 @@
         <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C27" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B28" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C28" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B29" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C29" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B30" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C30" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B31" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C31" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B32" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C32" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B33" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C33" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B34" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C34" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B35" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C35" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B36" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C36" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B37" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C37" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B38" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C38" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B39" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C39" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B40" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C40" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B41" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B42" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C42" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B43" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C43" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B44" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C44" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B45" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C45" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B46" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C46" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B47" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C47" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>293</v>
+      </c>
+      <c r="B48" t="s">
         <v>296</v>
       </c>
-      <c r="B48" t="s">
-        <v>299</v>
-      </c>
       <c r="C48" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B49" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C49" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B50" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C50" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B51" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C51" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -3528,10 +3548,10 @@
         <v>81</v>
       </c>
       <c r="B52" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C52" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -3539,10 +3559,10 @@
         <v>81</v>
       </c>
       <c r="B53" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C53" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -3550,10 +3570,10 @@
         <v>81</v>
       </c>
       <c r="B54" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C54" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -3561,10 +3581,10 @@
         <v>81</v>
       </c>
       <c r="B55" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C55" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -3572,10 +3592,10 @@
         <v>81</v>
       </c>
       <c r="B56" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C56" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -3583,10 +3603,10 @@
         <v>81</v>
       </c>
       <c r="B57" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C57" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -3594,10 +3614,10 @@
         <v>81</v>
       </c>
       <c r="B58" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C58" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -3605,10 +3625,10 @@
         <v>81</v>
       </c>
       <c r="B59" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C59" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -3616,10 +3636,10 @@
         <v>81</v>
       </c>
       <c r="B60" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C60" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -3627,10 +3647,10 @@
         <v>81</v>
       </c>
       <c r="B61" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C61" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -3638,10 +3658,10 @@
         <v>90</v>
       </c>
       <c r="B62" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C62" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -3649,32 +3669,32 @@
         <v>90</v>
       </c>
       <c r="B63" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C63" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B64" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C64" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B65" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C65" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -3682,10 +3702,10 @@
         <v>94</v>
       </c>
       <c r="B66" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C66" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -3693,10 +3713,10 @@
         <v>94</v>
       </c>
       <c r="B67" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C67" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -3704,802 +3724,780 @@
         <v>94</v>
       </c>
       <c r="B68" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C68" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B69" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C69" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B70" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C70" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B71" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C71" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B72" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C72" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B73" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C73" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B74" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C74" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B75" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C75" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B76" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C76" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B77" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C77" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B78" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C78" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B79" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C79" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B80" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C80" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B81" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C81" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B82" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C82" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B83" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C83" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B84" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C84" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B85" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C85" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B86" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C86" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B87" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C87" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B88" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C88" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B89" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C89" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B90" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C90" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B91" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C91" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B92" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C92" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B93" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C93" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B94" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C94" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B95" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C95" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B96" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C96" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B97" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C97" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B98" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C98" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B99" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C99" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B100" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C100" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B101" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C101" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B102" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C102" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B103" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C103" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B104" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C104" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B105" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C105" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>387</v>
+      </c>
+      <c r="B106" t="s">
         <v>390</v>
       </c>
-      <c r="B106" t="s">
-        <v>393</v>
-      </c>
       <c r="C106" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B107" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C107" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B108" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C108" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>391</v>
+      </c>
+      <c r="B109" t="s">
         <v>394</v>
       </c>
-      <c r="B109" t="s">
-        <v>397</v>
-      </c>
       <c r="C109" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B110" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C110" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B111" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C111" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B112" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C112" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B113" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C113" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B114" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C114" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C115" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C116" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B117" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C117" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B118" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C118" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B119" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C119" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B120" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C120" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C121" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C122" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B123" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C123" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B124" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C124" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B125" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C125" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B126" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C126" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B127" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C127" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B128" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C128" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B129" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C129" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B130" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C130" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B131" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C131" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B132" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C132" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B133" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C133" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B134" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C134" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="B135" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C135" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="B136" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C136" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>66</v>
+        <v>427</v>
       </c>
       <c r="B137" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C137" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>66</v>
+        <v>427</v>
       </c>
       <c r="B138" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C138" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>430</v>
-      </c>
-      <c r="B139" t="s">
         <v>248</v>
-      </c>
-      <c r="C139" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>430</v>
-      </c>
-      <c r="B140" t="s">
-        <v>250</v>
-      </c>
-      <c r="C140" t="s">
-        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/survey_questions_temp.xlsx
+++ b/survey_questions_temp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4eeea2119f37a1e9/My Documents/Websites/mada-whale-fr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="8_{D1D1AADA-C8E0-4EA8-94B9-A9AB95E99A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDDFEA2F-0995-4E96-8C6F-F06628EB3C3F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3AA83AA-CC51-4C27-B9A8-BE7517B3C81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="426">
   <si>
     <t>type</t>
   </si>
@@ -36,12 +36,12 @@
     <t>hint</t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
     <t>required_message</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>appearance</t>
   </si>
   <si>
@@ -63,48 +63,42 @@
     <t>start</t>
   </si>
   <si>
-    <t>survey_start</t>
+    <t>end</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>deviceid</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>section_1_voyage</t>
+  </si>
+  <si>
+    <t>### Section 1 : détails du voyage</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>observer</t>
+  </si>
+  <si>
+    <t>Nom</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>Cette réponse est requise</t>
   </si>
   <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>survey_end</t>
-  </si>
-  <si>
-    <t>deviceid</t>
-  </si>
-  <si>
-    <t>client_identifier</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>section_1_voyage</t>
-  </si>
-  <si>
-    <t>### Section 1 : détails du voyage</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>observer</t>
-  </si>
-  <si>
-    <t>Nom</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
     <t>select_one operator</t>
   </si>
   <si>
@@ -117,6 +111,15 @@
     <t>select</t>
   </si>
   <si>
+    <t>select_one yes_no</t>
+  </si>
+  <si>
+    <t>additional_research</t>
+  </si>
+  <si>
+    <t>Allez-vous effectuer de la recherche scientifique additionnelle ?</t>
+  </si>
+  <si>
     <t>guide</t>
   </si>
   <si>
@@ -147,7 +150,10 @@
     <t>Entrez une valeur entre 0 et 4</t>
   </si>
   <si>
-    <t>(. &gt;=0 and .&lt;=4)</t>
+    <t>${operator} != 'other'</t>
+  </si>
+  <si>
+    <t>. &gt;= 0</t>
   </si>
   <si>
     <t>Doit être entre 0 et 4</t>
@@ -162,9 +168,6 @@
     <t>Entrez une valeur entre 0 et 6</t>
   </si>
   <si>
-    <t>(. &gt;=0 and .&lt;=6)</t>
-  </si>
-  <si>
     <t>Doit être entre 0 et 6</t>
   </si>
   <si>
@@ -195,18 +198,51 @@
     <t>Si il n'y a pas de recontre, laissez blanc et procédez à la prochaine section</t>
   </si>
   <si>
+    <t>select_one rb_in_chasse</t>
+  </si>
+  <si>
+    <t>rb_in_chasse</t>
+  </si>
+  <si>
+    <t>Est-ce qu’il y a un requin baleine dans la chasse?</t>
+  </si>
+  <si>
+    <t>(${megaf_or_shark}='chasse') and (${operator} != 'other')</t>
+  </si>
+  <si>
     <t>calculate</t>
   </si>
   <si>
     <t>chasse_id</t>
   </si>
   <si>
-    <t>${megaf_or_shark}='chasse'</t>
+    <t>${megaf_or_shark} = 'chasse'</t>
   </si>
   <si>
     <t>once(concat('uuid:', uuid()))</t>
   </si>
   <si>
+    <t>megaf_number</t>
+  </si>
+  <si>
+    <t>${megaf_or_shark} = 'megaf'</t>
+  </si>
+  <si>
+    <t>position(..)</t>
+  </si>
+  <si>
+    <t>megaf_id</t>
+  </si>
+  <si>
+    <t>sighting_number</t>
+  </si>
+  <si>
+    <t>(${megaf_or_shark}='shark') or (${rb_in_chasse}='yes')</t>
+  </si>
+  <si>
+    <t>shark_uuid</t>
+  </si>
+  <si>
     <t>geopoint</t>
   </si>
   <si>
@@ -219,30 +255,18 @@
     <t>Press save before 5m</t>
   </si>
   <si>
-    <t>select_one rb_in_chasse</t>
-  </si>
-  <si>
-    <t>rb_in_chasse</t>
-  </si>
-  <si>
-    <t>Est-ce qu’il y a un requin baleine dans la chasse?</t>
-  </si>
-  <si>
-    <t>megaf_number</t>
-  </si>
-  <si>
-    <t>${megaf_or_shark}='megaf'</t>
-  </si>
-  <si>
-    <t>position(..)</t>
-  </si>
-  <si>
-    <t>megaf_id</t>
+    <t>(${rb_in_chasse}='no') and (${megaf_or_shark}='chasse')</t>
   </si>
   <si>
     <t>megaf_geo</t>
   </si>
   <si>
+    <t>shark_geo</t>
+  </si>
+  <si>
+    <t>(${megaf_or_shark}='shark') or ((${rb_in_chasse}='yes') and (${megaf_or_shark}='chasse'))</t>
+  </si>
+  <si>
     <t>select_one megaf or_other</t>
   </si>
   <si>
@@ -261,7 +285,7 @@
     <t>Composition du groupe</t>
   </si>
   <si>
-    <t>${espece}='baleine_bosse'</t>
+    <t>${espece} = 'baleine_bosse'</t>
   </si>
   <si>
     <t>select_one megaf_count</t>
@@ -282,15 +306,6 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>sighting_number</t>
-  </si>
-  <si>
-    <t>(${megaf_or_shark}='shark') or (${rb_in_chasse}='yes')</t>
-  </si>
-  <si>
-    <t>shark_uuid</t>
-  </si>
-  <si>
     <t>select_one left_id</t>
   </si>
   <si>
@@ -300,7 +315,19 @@
     <t>Photo d'identification gauche?</t>
   </si>
   <si>
-    <t>shark_geo</t>
+    <t>sighting_was_by_observer</t>
+  </si>
+  <si>
+    <t>Confirme que le requin baleine a été photographié par ${observer} ?</t>
+  </si>
+  <si>
+    <t>${left_id} = 'yes'</t>
+  </si>
+  <si>
+    <t>sighting_observer</t>
+  </si>
+  <si>
+    <t>${sighting_was_by_observer} = 'no'</t>
   </si>
   <si>
     <t>select_one sex</t>
@@ -312,6 +339,9 @@
     <t>Sexe</t>
   </si>
   <si>
+    <t>(${left_id}='yes') and  (${operator} != 'other')</t>
+  </si>
+  <si>
     <t>decimal</t>
   </si>
   <si>
@@ -336,7 +366,7 @@
     <t>nouvelle cicatrices</t>
   </si>
   <si>
-    <t>${scars}='yes'</t>
+    <t>${scars} = 'yes'</t>
   </si>
   <si>
     <t>whale.jpeg</t>
@@ -403,7 +433,7 @@
     <t>Comportements d’évitement</t>
   </si>
   <si>
-    <t>${code_of_conduct}='no'</t>
+    <t>${code_of_conduct} = 'no'</t>
   </si>
   <si>
     <t>nom_du_bateau_en_faute</t>
@@ -418,9 +448,6 @@
     <t>Nombre minimum de bateaux autour:</t>
   </si>
   <si>
-    <t>(. &gt;=0 and .&lt;=15)</t>
-  </si>
-  <si>
     <t>Doit être entre 0 et 15</t>
   </si>
   <si>
@@ -439,6 +466,30 @@
     <t>Fin de la rencontre:</t>
   </si>
   <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>Est-ce que ce requin porte une balise ?</t>
+  </si>
+  <si>
+    <t>tag_deployed</t>
+  </si>
+  <si>
+    <t>Déployer une balise ?</t>
+  </si>
+  <si>
+    <t>${tag} = 'no'</t>
+  </si>
+  <si>
+    <t>tag_no</t>
+  </si>
+  <si>
+    <t>Numero de balise</t>
+  </si>
+  <si>
+    <t>${tag_deployed} = 'yes'</t>
+  </si>
+  <si>
     <t>select_one biopsy</t>
   </si>
   <si>
@@ -448,13 +499,55 @@
     <t>Avez-vous pris une biopsie?</t>
   </si>
   <si>
+    <t>(${left_id}='yes') and  ((${additional_research} = 'yes') or (${operator} = 'research'))</t>
+  </si>
+  <si>
     <t>biopsy_number</t>
   </si>
   <si>
     <t>Numéro de biopsie</t>
   </si>
   <si>
-    <t>${biopsy}='yes'</t>
+    <t>${biopsy} = 'yes'</t>
+  </si>
+  <si>
+    <t>select_one drone</t>
+  </si>
+  <si>
+    <t>drone</t>
+  </si>
+  <si>
+    <t>Avez-vous mesuré ce requin avec un drône?</t>
+  </si>
+  <si>
+    <t>select_one prey</t>
+  </si>
+  <si>
+    <t>prey</t>
+  </si>
+  <si>
+    <t>Avez-vous collecté des échantillons de proies?</t>
+  </si>
+  <si>
+    <t>prey_tube_number</t>
+  </si>
+  <si>
+    <t>Numéro du tube</t>
+  </si>
+  <si>
+    <t>${prey} = 'yes'</t>
+  </si>
+  <si>
+    <t>prey_bio_tube_no</t>
+  </si>
+  <si>
+    <t>Doit être entre 0 et 50</t>
+  </si>
+  <si>
+    <t>shark_name_known</t>
+  </si>
+  <si>
+    <t>Connaissez-vous le nom du requin?</t>
   </si>
   <si>
     <t>surrounding_objects</t>
@@ -466,49 +559,7 @@
     <t>Type de bateau, filets de pêche, etc.</t>
   </si>
   <si>
-    <t>select_one drone</t>
-  </si>
-  <si>
-    <t>drone</t>
-  </si>
-  <si>
-    <t>Avez-vous mesuré ce requin avec un drône?</t>
-  </si>
-  <si>
-    <t>select_one prey</t>
-  </si>
-  <si>
-    <t>prey</t>
-  </si>
-  <si>
-    <t>Avez-vous collecté des échantillons de platique ou de proies?</t>
-  </si>
-  <si>
-    <t>prey_tube_number</t>
-  </si>
-  <si>
-    <t>Numéro du tube</t>
-  </si>
-  <si>
-    <t>${prey}='yes'</t>
-  </si>
-  <si>
-    <t>prey_bio_tube_no</t>
-  </si>
-  <si>
-    <t>(. &gt;=0 and .&lt;=50)</t>
-  </si>
-  <si>
-    <t>Doit être entre 0 et 50</t>
-  </si>
-  <si>
-    <t>shark_name_known</t>
-  </si>
-  <si>
-    <t>Connaissez-vous le nom du requin?</t>
-  </si>
-  <si>
-    <t>${left_id}='yes'</t>
+    <t>(${left_id}='yes')</t>
   </si>
   <si>
     <t>sighting_added</t>
@@ -524,6 +575,9 @@
     <t>### Section finale: détails de la sortie</t>
   </si>
   <si>
+    <t>(${additional_research} = 'yes') or (${operator} = 'research')</t>
+  </si>
+  <si>
     <t>select_one mise_a_leau</t>
   </si>
   <si>
@@ -542,7 +596,10 @@
     <t>Entrez une valeur entre 25 et 35</t>
   </si>
   <si>
-    <t>(. &gt;=25 and .&lt;=35)</t>
+    <t>(${mise_a_leau}='yes') and ((${additional_research} = 'yes') or (${operator} = 'research'))</t>
+  </si>
+  <si>
+    <t>. &gt;= 25</t>
   </si>
   <si>
     <t>Doit être entre 25 et 35</t>
@@ -557,7 +614,7 @@
     <t>Visibilité horizontale</t>
   </si>
   <si>
-    <t>${mise_a_leau}='yes'</t>
+    <t>${mise_a_leau} = 'yes'</t>
   </si>
   <si>
     <t>begin_group</t>
@@ -617,10 +674,7 @@
     <t>Entre 0 et 100</t>
   </si>
   <si>
-    <t>${trichodesmium}='yes'</t>
-  </si>
-  <si>
-    <t>(. &gt;=0 and .&lt;=100)</t>
+    <t>${trichodesmium} = 'yes'</t>
   </si>
   <si>
     <t>Doit être entre 0 et 100</t>
@@ -653,6 +707,9 @@
     <t>Bateaux de pêche, bateaux touristiques, etc.</t>
   </si>
   <si>
+    <t>${boats_total} &gt; 0</t>
+  </si>
+  <si>
     <t>list_name</t>
   </si>
   <si>
@@ -662,6 +719,12 @@
     <t>LBR</t>
   </si>
   <si>
+    <t>safari_baleine</t>
+  </si>
+  <si>
+    <t>Safari Baleine</t>
+  </si>
+  <si>
     <t>research</t>
   </si>
   <si>
@@ -674,25 +737,19 @@
     <t>Autre Operateur</t>
   </si>
   <si>
-    <t>Thomas</t>
-  </si>
-  <si>
-    <t>Pat</t>
-  </si>
-  <si>
-    <t>Emilie</t>
-  </si>
-  <si>
-    <t>Tanguy</t>
-  </si>
-  <si>
-    <t>Elina</t>
-  </si>
-  <si>
-    <t>Elise</t>
-  </si>
-  <si>
-    <t>Guillaume</t>
+    <t>yes_no</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Oui</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Non</t>
   </si>
   <si>
     <t>sakatia</t>
@@ -737,6 +794,486 @@
     <t>Baie des Russes</t>
   </si>
   <si>
+    <t>shark</t>
+  </si>
+  <si>
+    <t>Requin Baleine dans le bleu</t>
+  </si>
+  <si>
+    <t>chasse</t>
+  </si>
+  <si>
+    <t>Chasse</t>
+  </si>
+  <si>
+    <t>megaf</t>
+  </si>
+  <si>
+    <t>Autre mégafaune</t>
+  </si>
+  <si>
+    <t>baleine_bosse</t>
+  </si>
+  <si>
+    <t>Baleine à Bosse</t>
+  </si>
+  <si>
+    <t>baleine_domura</t>
+  </si>
+  <si>
+    <t>Baleine d'Omura</t>
+  </si>
+  <si>
+    <t>baleine_indeterminee</t>
+  </si>
+  <si>
+    <t>Baleine indéterminée</t>
+  </si>
+  <si>
+    <t>dauphin_a_bosse</t>
+  </si>
+  <si>
+    <t>Dauphin a bosse</t>
+  </si>
+  <si>
+    <t>dauphin_delectre</t>
+  </si>
+  <si>
+    <t>Dauphin d'Electre</t>
+  </si>
+  <si>
+    <t>dauphin</t>
+  </si>
+  <si>
+    <t>Dauphin indéterminé</t>
+  </si>
+  <si>
+    <t>dauphin_long_bec</t>
+  </si>
+  <si>
+    <t>Dauphin Long Bec</t>
+  </si>
+  <si>
+    <t>dauphin_tachete</t>
+  </si>
+  <si>
+    <t>Dauphin Tacheté</t>
+  </si>
+  <si>
+    <t>faux_orque</t>
+  </si>
+  <si>
+    <t>Faux Orque</t>
+  </si>
+  <si>
+    <t>grand_dauphin</t>
+  </si>
+  <si>
+    <t>Grand Dauphin</t>
+  </si>
+  <si>
+    <t>raie_aigle</t>
+  </si>
+  <si>
+    <t>Raie Aigle</t>
+  </si>
+  <si>
+    <t>raie_manta_oceanique</t>
+  </si>
+  <si>
+    <t>Raie Manta Océanique</t>
+  </si>
+  <si>
+    <t>raie_mobula_kuhlii</t>
+  </si>
+  <si>
+    <t>Raie mobula kuhlii</t>
+  </si>
+  <si>
+    <t>raie_mobula_japanica</t>
+  </si>
+  <si>
+    <t>Raie mobula japanica</t>
+  </si>
+  <si>
+    <t>tortue_imbriquee</t>
+  </si>
+  <si>
+    <t>Tortue imbriquée</t>
+  </si>
+  <si>
+    <t>tortue_luth</t>
+  </si>
+  <si>
+    <t>Tortue Luth</t>
+  </si>
+  <si>
+    <t>tortue_olivatre</t>
+  </si>
+  <si>
+    <t>Tortue Olivâtre</t>
+  </si>
+  <si>
+    <t>tortue_verte</t>
+  </si>
+  <si>
+    <t>Tortue verte</t>
+  </si>
+  <si>
+    <t>raie_indeterminee</t>
+  </si>
+  <si>
+    <t>Raie Indéterminée</t>
+  </si>
+  <si>
+    <t>megaf_dauph</t>
+  </si>
+  <si>
+    <t>group_actif_de_surface</t>
+  </si>
+  <si>
+    <t>Group actif de surface</t>
+  </si>
+  <si>
+    <t>mere_baleineau</t>
+  </si>
+  <si>
+    <t>Mère  baleineau</t>
+  </si>
+  <si>
+    <t>mere_baleineau_plus_escorte</t>
+  </si>
+  <si>
+    <t>Mère baleineau + escorte(s)</t>
+  </si>
+  <si>
+    <t>solitaire</t>
+  </si>
+  <si>
+    <t>Solitaire</t>
+  </si>
+  <si>
+    <t>couple</t>
+  </si>
+  <si>
+    <t>Couple</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>5-10</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>10-20</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>20-40</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>40-80</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>80-150</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>150+</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>Mâle</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>Femelle</t>
+  </si>
+  <si>
+    <t>undetermined</t>
+  </si>
+  <si>
+    <t>Indéterminé</t>
+  </si>
+  <si>
+    <t>Bouche_droite</t>
+  </si>
+  <si>
+    <t>Bouche - droite</t>
+  </si>
+  <si>
+    <t>Bouche_gauche</t>
+  </si>
+  <si>
+    <t>Bouche - gauche</t>
+  </si>
+  <si>
+    <t>Dos_arriere</t>
+  </si>
+  <si>
+    <t>Dos - arrière</t>
+  </si>
+  <si>
+    <t>Dos_avant</t>
+  </si>
+  <si>
+    <t>Dos - avant</t>
+  </si>
+  <si>
+    <t>Fentes_brachiales_droite</t>
+  </si>
+  <si>
+    <t>Fentes brachiales - droite</t>
+  </si>
+  <si>
+    <t>Fentes_brachiales_gauche</t>
+  </si>
+  <si>
+    <t>Fentes brachiales - gauche</t>
+  </si>
+  <si>
+    <t>Flanc_droit</t>
+  </si>
+  <si>
+    <t>Flanc droit</t>
+  </si>
+  <si>
+    <t>Flanc_gauche</t>
+  </si>
+  <si>
+    <t>Flanc gauche</t>
+  </si>
+  <si>
+    <t>Nageoire_caudale_bas</t>
+  </si>
+  <si>
+    <t>Nageoire caudale - bas</t>
+  </si>
+  <si>
+    <t>Nageoire_caudale_haut</t>
+  </si>
+  <si>
+    <t>Nageoire caudale - haut</t>
+  </si>
+  <si>
+    <t>Nageoire_dorsale</t>
+  </si>
+  <si>
+    <t>Nageoire dorsale</t>
+  </si>
+  <si>
+    <t>Nageoire_pectorale_droite</t>
+  </si>
+  <si>
+    <t>Nageoire pectorale - droite</t>
+  </si>
+  <si>
+    <t>Nageoire_pectorale_gauche</t>
+  </si>
+  <si>
+    <t>Nageoire pectorale - gauche</t>
+  </si>
+  <si>
+    <t>Nageoire_pelvienne</t>
+  </si>
+  <si>
+    <t>Nageoire pelvienne</t>
+  </si>
+  <si>
+    <t>Narine</t>
+  </si>
+  <si>
+    <t>Oeil_droit</t>
+  </si>
+  <si>
+    <t>Oeil droit</t>
+  </si>
+  <si>
+    <t>Oeil_gauche</t>
+  </si>
+  <si>
+    <t>Oeil gauche</t>
+  </si>
+  <si>
+    <t>Tete</t>
+  </si>
+  <si>
+    <t>Tête</t>
+  </si>
+  <si>
+    <t>Ventre_arriere</t>
+  </si>
+  <si>
+    <t>Ventre - arrière</t>
+  </si>
+  <si>
+    <t>Ventre_avant</t>
+  </si>
+  <si>
+    <t>Ventre - avant</t>
+  </si>
+  <si>
+    <t>Cicatrice_legère</t>
+  </si>
+  <si>
+    <t>Cicatrice légère</t>
+  </si>
+  <si>
+    <t>Cicatrice_profonde</t>
+  </si>
+  <si>
+    <t>Cicatrice profonde</t>
+  </si>
+  <si>
+    <t>Enroulee</t>
+  </si>
+  <si>
+    <t>Enroulé(e)</t>
+  </si>
+  <si>
+    <t>Entaillee_Sectionnee</t>
+  </si>
+  <si>
+    <t>Entaillé(e) / Sectionné(e)</t>
+  </si>
+  <si>
+    <t>Entaille_helices_de_bateau</t>
+  </si>
+  <si>
+    <t>Entaille hélices de bateau</t>
+  </si>
+  <si>
+    <t>Filet</t>
+  </si>
+  <si>
+    <t>Hamecon</t>
+  </si>
+  <si>
+    <t>Hameçon</t>
+  </si>
+  <si>
+    <t>Maladie_de_peau_Infection</t>
+  </si>
+  <si>
+    <t>Maladie de peau / Infection</t>
+  </si>
+  <si>
+    <t>Manquante</t>
+  </si>
+  <si>
+    <t>Manquant(e)</t>
+  </si>
+  <si>
+    <t>Marques_de_bateau</t>
+  </si>
+  <si>
+    <t>Marques de bateau</t>
+  </si>
+  <si>
+    <t>Morsure</t>
+  </si>
+  <si>
+    <t>Nage_doucement</t>
+  </si>
+  <si>
+    <t>Nage doucement</t>
+  </si>
+  <si>
+    <t>Alimentation_active</t>
+  </si>
+  <si>
+    <t>Alimentation active</t>
+  </si>
+  <si>
+    <t>Alimentation_passive</t>
+  </si>
+  <si>
+    <t>Alimentation passive</t>
+  </si>
+  <si>
+    <t>Nage_rapide</t>
+  </si>
+  <si>
+    <t>Nage rapide</t>
+  </si>
+  <si>
+    <t>Reste_profond</t>
+  </si>
+  <si>
+    <t>Reste profond</t>
+  </si>
+  <si>
+    <t>Autre</t>
+  </si>
+  <si>
+    <t>conduct</t>
+  </si>
+  <si>
+    <t>banking</t>
+  </si>
+  <si>
+    <t>Banking</t>
+  </si>
+  <si>
+    <t>plonge_directement</t>
+  </si>
+  <si>
+    <t>Plonge directement</t>
+  </si>
+  <si>
+    <t>change_rapidement</t>
+  </si>
+  <si>
+    <t>Change de direction rapidement</t>
+  </si>
+  <si>
+    <t>requin</t>
+  </si>
+  <si>
+    <t>Requin</t>
+  </si>
+  <si>
+    <t>notre_bateau</t>
+  </si>
+  <si>
+    <t>Notre bateau</t>
+  </si>
+  <si>
+    <t>autre_bateau</t>
+  </si>
+  <si>
+    <t>Autre bateau</t>
+  </si>
+  <si>
     <t>0-5m</t>
   </si>
   <si>
@@ -761,601 +1298,10 @@
     <t>15+ mètres</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>Oui</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>Non</t>
-  </si>
-  <si>
-    <t>shark</t>
-  </si>
-  <si>
-    <t>Requin Baleine</t>
-  </si>
-  <si>
-    <t>megaf</t>
-  </si>
-  <si>
-    <t>Autre mégafaune</t>
-  </si>
-  <si>
-    <t>chasse</t>
-  </si>
-  <si>
-    <t>Chasse</t>
-  </si>
-  <si>
-    <t>baleine_bosse</t>
-  </si>
-  <si>
-    <t>Baleine à Bosse</t>
-  </si>
-  <si>
-    <t>baleine_domura</t>
-  </si>
-  <si>
-    <t>Baleine d'Omura</t>
-  </si>
-  <si>
-    <t>baleine_indeterminee</t>
-  </si>
-  <si>
-    <t>Baleine indéterminée</t>
-  </si>
-  <si>
-    <t>dauphin_a_bosse</t>
-  </si>
-  <si>
-    <t>Dauphin a bosse</t>
-  </si>
-  <si>
-    <t>dauphin_delectre</t>
-  </si>
-  <si>
-    <t>Dauphin d'Electre</t>
-  </si>
-  <si>
-    <t>dauphin</t>
-  </si>
-  <si>
-    <t>Dauphin indéterminé</t>
-  </si>
-  <si>
-    <t>dauphin_long_bec</t>
-  </si>
-  <si>
-    <t>Dauphin Long Bec</t>
-  </si>
-  <si>
-    <t>dauphin_tachete</t>
-  </si>
-  <si>
-    <t>Dauphin Tacheté</t>
-  </si>
-  <si>
-    <t>faux_orque</t>
-  </si>
-  <si>
-    <t>Faux Orque</t>
-  </si>
-  <si>
-    <t>grand_dauphin</t>
-  </si>
-  <si>
-    <t>Grand Dauphin</t>
-  </si>
-  <si>
-    <t>raie_aigle</t>
-  </si>
-  <si>
-    <t>Raie Aigle</t>
-  </si>
-  <si>
-    <t>raie_manta_oceanique</t>
-  </si>
-  <si>
-    <t>Raie Manta Océanique</t>
-  </si>
-  <si>
-    <t>raie_mobula_kuhlii</t>
-  </si>
-  <si>
-    <t>Raie mobula kuhlii</t>
-  </si>
-  <si>
-    <t>raie_mobula_japanica</t>
-  </si>
-  <si>
-    <t>Raie mobula japanica</t>
-  </si>
-  <si>
-    <t>tortue_imbriquee</t>
-  </si>
-  <si>
-    <t>Tortue imbriquée</t>
-  </si>
-  <si>
-    <t>tortue_luth</t>
-  </si>
-  <si>
-    <t>Tortue Luth</t>
-  </si>
-  <si>
-    <t>tortue_olivatre</t>
-  </si>
-  <si>
-    <t>Tortue Olivâtre</t>
-  </si>
-  <si>
-    <t>tortue_verte</t>
-  </si>
-  <si>
-    <t>Tortue verte</t>
-  </si>
-  <si>
-    <t>raie_indeterminee</t>
-  </si>
-  <si>
-    <t>Raie Indéterminée</t>
-  </si>
-  <si>
-    <t>megaf_dauph</t>
-  </si>
-  <si>
-    <t>group_actif_de_surface</t>
-  </si>
-  <si>
-    <t>Group actif de surface</t>
-  </si>
-  <si>
-    <t>mere_baleineau</t>
-  </si>
-  <si>
-    <t>Mère  baleineau</t>
-  </si>
-  <si>
-    <t>mere_baleineau_plus_escorte</t>
-  </si>
-  <si>
-    <t>Mère baleineau + escorte(s)</t>
-  </si>
-  <si>
-    <t>solitaire</t>
-  </si>
-  <si>
-    <t>Solitaire</t>
-  </si>
-  <si>
-    <t>couple</t>
-  </si>
-  <si>
-    <t>Couple</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>7.5</t>
-  </si>
-  <si>
-    <t>5-10</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>10-20</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>20-40</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>40-80</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>80-150</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>150+</t>
-  </si>
-  <si>
-    <t>right_id</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>Mâle</t>
-  </si>
-  <si>
-    <t>female</t>
-  </si>
-  <si>
-    <t>Femelle</t>
-  </si>
-  <si>
-    <t>undetermined</t>
-  </si>
-  <si>
-    <t>Indéterminé</t>
-  </si>
-  <si>
-    <t>sex_pic</t>
-  </si>
-  <si>
-    <t>Bouche_droite</t>
-  </si>
-  <si>
-    <t>Bouche - droite</t>
-  </si>
-  <si>
-    <t>Bouche_gauche</t>
-  </si>
-  <si>
-    <t>Bouche - gauche</t>
-  </si>
-  <si>
-    <t>Dos_arriere</t>
-  </si>
-  <si>
-    <t>Dos - arrière</t>
-  </si>
-  <si>
-    <t>Dos_avant</t>
-  </si>
-  <si>
-    <t>Dos - avant</t>
-  </si>
-  <si>
-    <t>Fentes_brachiales_droite</t>
-  </si>
-  <si>
-    <t>Fentes brachiales - droite</t>
-  </si>
-  <si>
-    <t>Fentes_brachiales_gauche</t>
-  </si>
-  <si>
-    <t>Fentes brachiales - gauche</t>
-  </si>
-  <si>
-    <t>Flanc_droit</t>
-  </si>
-  <si>
-    <t>Flanc droit</t>
-  </si>
-  <si>
-    <t>Flanc_gauche</t>
-  </si>
-  <si>
-    <t>Flanc gauche</t>
-  </si>
-  <si>
-    <t>Nageoire_caudale_bas</t>
-  </si>
-  <si>
-    <t>Nageoire caudale - bas</t>
-  </si>
-  <si>
-    <t>Nageoire_caudale_haut</t>
-  </si>
-  <si>
-    <t>Nageoire caudale - haut</t>
-  </si>
-  <si>
-    <t>Nageoire_dorsale</t>
-  </si>
-  <si>
-    <t>Nageoire dorsale</t>
-  </si>
-  <si>
-    <t>Nageoire_pectorale_droite</t>
-  </si>
-  <si>
-    <t>Nageoire pectorale - droite</t>
-  </si>
-  <si>
-    <t>Nageoire_pectorale_gauche</t>
-  </si>
-  <si>
-    <t>Nageoire pectorale - gauche</t>
-  </si>
-  <si>
-    <t>Nageoire_pelvienne</t>
-  </si>
-  <si>
-    <t>Nageoire pelvienne</t>
-  </si>
-  <si>
-    <t>Narine</t>
-  </si>
-  <si>
-    <t>Oeil_droit</t>
-  </si>
-  <si>
-    <t>Oeil droit</t>
-  </si>
-  <si>
-    <t>Oeil_gauche</t>
-  </si>
-  <si>
-    <t>Oeil gauche</t>
-  </si>
-  <si>
-    <t>Tete</t>
-  </si>
-  <si>
-    <t>Tête</t>
-  </si>
-  <si>
-    <t>Ventre_arriere</t>
-  </si>
-  <si>
-    <t>Ventre - arrière</t>
-  </si>
-  <si>
-    <t>Ventre_avant</t>
-  </si>
-  <si>
-    <t>Ventre - avant</t>
-  </si>
-  <si>
-    <t>Cicatrice_legère</t>
-  </si>
-  <si>
-    <t>Cicatrice légère</t>
-  </si>
-  <si>
-    <t>Cicatrice_profonde</t>
-  </si>
-  <si>
-    <t>Cicatrice profonde</t>
-  </si>
-  <si>
-    <t>Enroulee</t>
-  </si>
-  <si>
-    <t>Enroulé(e)</t>
-  </si>
-  <si>
-    <t>Entaillee_Sectionnee</t>
-  </si>
-  <si>
-    <t>Entaillé(e) / Sectionné(e)</t>
-  </si>
-  <si>
-    <t>Entaille_helices_de_bateau</t>
-  </si>
-  <si>
-    <t>Entaille hélices de bateau</t>
-  </si>
-  <si>
-    <t>Filet</t>
-  </si>
-  <si>
-    <t>Hamecon</t>
-  </si>
-  <si>
-    <t>Hameçon</t>
-  </si>
-  <si>
-    <t>Maladie_de_peau_Infection</t>
-  </si>
-  <si>
-    <t>Maladie de peau / Infection</t>
-  </si>
-  <si>
-    <t>Manquante</t>
-  </si>
-  <si>
-    <t>Manquant(e)</t>
-  </si>
-  <si>
-    <t>Marques_de_bateau</t>
-  </si>
-  <si>
-    <t>Marques de bateau</t>
-  </si>
-  <si>
-    <t>Morsure</t>
-  </si>
-  <si>
-    <t>taille_chasse</t>
-  </si>
-  <si>
-    <t>Petite</t>
-  </si>
-  <si>
-    <t>Moyenne</t>
-  </si>
-  <si>
-    <t>Grande</t>
-  </si>
-  <si>
-    <t>compactness</t>
-  </si>
-  <si>
-    <t>Compacte</t>
-  </si>
-  <si>
-    <t>Normale</t>
-  </si>
-  <si>
-    <t>Etendue</t>
-  </si>
-  <si>
-    <t>tag</t>
-  </si>
-  <si>
-    <t>Nage_doucement</t>
-  </si>
-  <si>
-    <t>Nage doucement</t>
-  </si>
-  <si>
-    <t>Alimentation_active</t>
-  </si>
-  <si>
-    <t>Alimentation active</t>
-  </si>
-  <si>
-    <t>Alimentation_passive</t>
-  </si>
-  <si>
-    <t>Alimentation passive</t>
-  </si>
-  <si>
-    <t>Nage_rapide</t>
-  </si>
-  <si>
-    <t>Nage rapide</t>
-  </si>
-  <si>
-    <t>Reste_profond</t>
-  </si>
-  <si>
-    <t>Reste profond</t>
-  </si>
-  <si>
-    <t>Autre</t>
-  </si>
-  <si>
-    <t>conduct</t>
-  </si>
-  <si>
-    <t>banking</t>
-  </si>
-  <si>
-    <t>Banking</t>
-  </si>
-  <si>
-    <t>plonge_directement</t>
-  </si>
-  <si>
-    <t>Plonge directement</t>
-  </si>
-  <si>
-    <t>change_rapidement</t>
-  </si>
-  <si>
-    <t>Change de direction rapidement</t>
-  </si>
-  <si>
-    <t>requin</t>
-  </si>
-  <si>
-    <t>Requin</t>
-  </si>
-  <si>
-    <t>nageurs</t>
-  </si>
-  <si>
-    <t>Nageurs</t>
-  </si>
-  <si>
-    <t>notre_bateau</t>
-  </si>
-  <si>
-    <t>Notre bateau</t>
-  </si>
-  <si>
-    <t>autre_bateau</t>
-  </si>
-  <si>
-    <t>Autre bateau</t>
-  </si>
-  <si>
-    <t>select_one yes_no</t>
-  </si>
-  <si>
-    <t>additional_research</t>
-  </si>
-  <si>
-    <t>sighting_was_by_observer</t>
-  </si>
-  <si>
-    <t>sighting_observer</t>
-  </si>
-  <si>
-    <t>Le requin baleine a-t-il été vu par ${observer} ?</t>
-  </si>
-  <si>
-    <t>yes_no</t>
-  </si>
-  <si>
-    <t>${additional_research} = 'yes'</t>
-  </si>
-  <si>
-    <t>(${megaf_or_shark}='chasse') and (${additional_research} = 'yes')</t>
-  </si>
-  <si>
-    <t>(${megaf_or_shark}='megaf') and (${additional_research} = 'yes')</t>
-  </si>
-  <si>
-    <t>(${left_id}='yes') and  (${additional_research} = 'yes')</t>
-  </si>
-  <si>
-    <t>(${mise_a_leau}='yes') and (${additional_research} = 'yes')</t>
-  </si>
-  <si>
-    <t>${boats_total}&gt;0</t>
-  </si>
-  <si>
-    <t>${sighting_was_by_observer}='no'</t>
-  </si>
-  <si>
-    <t>${rb_in_chasse} = 'no'</t>
-  </si>
-  <si>
-    <t>Allez-vous effectuer de la recherche scientifique additionnelle ?</t>
-  </si>
-  <si>
-    <t>Est-ce que ce requin porte une balise ?</t>
-  </si>
-  <si>
-    <t>Déployer une balise ?</t>
-  </si>
-  <si>
-    <t>tag_deployed</t>
-  </si>
-  <si>
-    <t>tag_no</t>
-  </si>
-  <si>
-    <t>Numero de balise</t>
-  </si>
-  <si>
-    <t>${tag}='no'</t>
-  </si>
-  <si>
-    <t>${tag_deployed}='yes'</t>
+    <t>survey_start</t>
+  </si>
+  <si>
+    <t>survey_end</t>
   </si>
 </sst>
 </file>
@@ -1408,10 +1354,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1703,17 +1645,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="49.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="52.140625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1758,326 +1694,350 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
+        <v>424</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>425</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
+      <c r="F7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
         <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>422</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>423</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>436</v>
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" t="s">
         <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H12" t="s">
-        <v>428</v>
+        <v>42</v>
       </c>
       <c r="I12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" t="s">
         <v>43</v>
       </c>
-      <c r="C13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" t="s">
-        <v>428</v>
-      </c>
-      <c r="I13" t="s">
-        <v>46</v>
-      </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>59</v>
-      </c>
-      <c r="K17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" t="s">
+        <v>64</v>
+      </c>
+      <c r="K18" t="s">
         <v>65</v>
-      </c>
-      <c r="B18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" t="s">
-        <v>67</v>
-      </c>
-      <c r="H18" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>435</v>
+        <v>67</v>
+      </c>
+      <c r="K19" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K20" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" t="s">
         <v>71</v>
       </c>
-      <c r="H21" t="s">
-        <v>69</v>
-      </c>
       <c r="K21" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
         <v>72</v>
       </c>
-      <c r="C22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" t="s">
-        <v>64</v>
+      <c r="E22" t="s">
+        <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>430</v>
+        <v>71</v>
+      </c>
+      <c r="K22" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -2090,717 +2050,825 @@
       <c r="C23" t="s">
         <v>75</v>
       </c>
-      <c r="G23" t="s">
-        <v>30</v>
+      <c r="D23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" t="s">
+        <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" t="s">
         <v>76</v>
       </c>
-      <c r="B24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" t="s">
-        <v>78</v>
+      <c r="E24" t="s">
+        <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" t="s">
         <v>80</v>
-      </c>
-      <c r="B25" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" t="s">
-        <v>82</v>
-      </c>
-      <c r="H25" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>83</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" t="s">
+        <v>28</v>
       </c>
       <c r="H26" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="B27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" t="s">
         <v>86</v>
+      </c>
+      <c r="E27" t="s">
+        <v>19</v>
       </c>
       <c r="H27" t="s">
         <v>87</v>
       </c>
-      <c r="K27" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="C28" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" t="s">
+        <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>87</v>
-      </c>
-      <c r="K28" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" t="s">
         <v>91</v>
-      </c>
-      <c r="E29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" t="s">
-        <v>26</v>
-      </c>
-      <c r="H29" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>422</v>
+        <v>94</v>
       </c>
       <c r="B30" t="s">
-        <v>424</v>
+        <v>95</v>
       </c>
       <c r="C30" t="s">
-        <v>426</v>
+        <v>96</v>
+      </c>
+      <c r="E30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" t="s">
+        <v>24</v>
       </c>
       <c r="H30" t="s">
-        <v>161</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>425</v>
+        <v>97</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>98</v>
+      </c>
+      <c r="E31" t="s">
+        <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>434</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" t="s">
-        <v>64</v>
+        <v>22</v>
+      </c>
+      <c r="E32" t="s">
+        <v>19</v>
       </c>
       <c r="H32" t="s">
-        <v>431</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="E33" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F33" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H33" t="s">
-        <v>431</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E34" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F34" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H34" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>422</v>
+        <v>109</v>
       </c>
       <c r="B35" t="s">
-        <v>395</v>
+        <v>110</v>
       </c>
       <c r="C35" t="s">
-        <v>437</v>
+        <v>111</v>
+      </c>
+      <c r="E35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" t="s">
+        <v>24</v>
       </c>
       <c r="H35" t="s">
-        <v>431</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>422</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>439</v>
+        <v>112</v>
       </c>
       <c r="C36" t="s">
-        <v>438</v>
+        <v>113</v>
+      </c>
+      <c r="E36" t="s">
+        <v>19</v>
       </c>
       <c r="H36" t="s">
-        <v>442</v>
+        <v>114</v>
+      </c>
+      <c r="L36" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s">
-        <v>440</v>
-      </c>
-      <c r="C37" t="s">
-        <v>441</v>
+        <v>116</v>
+      </c>
+      <c r="E37" t="s">
+        <v>19</v>
       </c>
       <c r="H37" t="s">
-        <v>443</v>
+        <v>114</v>
+      </c>
+      <c r="K37" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="E38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" t="s">
-        <v>26</v>
+        <v>19</v>
+      </c>
+      <c r="G38" t="s">
+        <v>120</v>
       </c>
       <c r="H38" t="s">
-        <v>431</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="C39" t="s">
-        <v>103</v>
+        <v>123</v>
+      </c>
+      <c r="E39" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" t="s">
+        <v>120</v>
       </c>
       <c r="H39" t="s">
-        <v>104</v>
-      </c>
-      <c r="L39" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>106</v>
+        <v>124</v>
+      </c>
+      <c r="C40" t="s">
+        <v>125</v>
+      </c>
+      <c r="E40" t="s">
+        <v>19</v>
       </c>
       <c r="H40" t="s">
-        <v>104</v>
-      </c>
-      <c r="K40" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>107</v>
-      </c>
-      <c r="B41" t="s">
-        <v>108</v>
-      </c>
-      <c r="C41" t="s">
-        <v>109</v>
-      </c>
-      <c r="G41" t="s">
-        <v>110</v>
-      </c>
-      <c r="H41" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="B42" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="C42" t="s">
-        <v>113</v>
+        <v>129</v>
+      </c>
+      <c r="E42" t="s">
+        <v>19</v>
       </c>
       <c r="G42" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="H42" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="B43" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C43" t="s">
-        <v>115</v>
+        <v>132</v>
+      </c>
+      <c r="E43" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" t="s">
+        <v>24</v>
       </c>
       <c r="H43" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>116</v>
+        <v>133</v>
+      </c>
+      <c r="B44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" t="s">
+        <v>135</v>
+      </c>
+      <c r="E44" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="B45" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="C45" t="s">
-        <v>119</v>
-      </c>
-      <c r="G45" t="s">
-        <v>30</v>
+        <v>138</v>
+      </c>
+      <c r="E45" t="s">
+        <v>19</v>
       </c>
       <c r="H45" t="s">
-        <v>431</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="B46" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="C46" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="E46" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H46" t="s">
-        <v>431</v>
+        <v>105</v>
+      </c>
+      <c r="I46" t="s">
+        <v>43</v>
+      </c>
+      <c r="J46" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>123</v>
+        <v>38</v>
       </c>
       <c r="B47" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C47" t="s">
-        <v>125</v>
-      </c>
-      <c r="G47" t="s">
-        <v>30</v>
+        <v>143</v>
+      </c>
+      <c r="E47" t="s">
+        <v>19</v>
       </c>
       <c r="H47" t="s">
-        <v>126</v>
+        <v>105</v>
+      </c>
+      <c r="I47" t="s">
+        <v>43</v>
+      </c>
+      <c r="J47" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>23</v>
+        <v>144</v>
       </c>
       <c r="B48" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="C48" t="s">
-        <v>128</v>
+        <v>146</v>
+      </c>
+      <c r="E48" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" t="s">
+        <v>28</v>
       </c>
       <c r="H48" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B49" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="C49" t="s">
-        <v>130</v>
+        <v>148</v>
+      </c>
+      <c r="E49" t="s">
+        <v>19</v>
       </c>
       <c r="H49" t="s">
-        <v>431</v>
-      </c>
-      <c r="I49" t="s">
-        <v>131</v>
-      </c>
-      <c r="J49" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B50" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="C50" t="s">
-        <v>134</v>
+        <v>150</v>
+      </c>
+      <c r="E50" t="s">
+        <v>19</v>
       </c>
       <c r="H50" t="s">
-        <v>431</v>
-      </c>
-      <c r="I50" t="s">
-        <v>131</v>
-      </c>
-      <c r="J50" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="C51" t="s">
-        <v>137</v>
-      </c>
-      <c r="G51" t="s">
-        <v>30</v>
+        <v>153</v>
+      </c>
+      <c r="E51" t="s">
+        <v>19</v>
       </c>
       <c r="H51" t="s">
-        <v>431</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="B52" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="C52" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="E52" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F52" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H52" t="s">
-        <v>431</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="C53" t="s">
-        <v>142</v>
+        <v>160</v>
+      </c>
+      <c r="E53" t="s">
+        <v>19</v>
       </c>
       <c r="H53" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>162</v>
+      </c>
+      <c r="B54" t="s">
+        <v>163</v>
+      </c>
+      <c r="C54" t="s">
+        <v>164</v>
+      </c>
+      <c r="E54" t="s">
         <v>23</v>
       </c>
-      <c r="B54" t="s">
-        <v>144</v>
-      </c>
-      <c r="C54" t="s">
-        <v>145</v>
-      </c>
-      <c r="D54" t="s">
-        <v>146</v>
+      <c r="F54" t="s">
+        <v>24</v>
       </c>
       <c r="H54" t="s">
-        <v>431</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="B55" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="C55" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="E55" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F55" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H55" t="s">
-        <v>431</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="B56" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="C56" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="E56" t="s">
-        <v>14</v>
-      </c>
-      <c r="F56" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H56" t="s">
-        <v>431</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B57" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="C57" t="s">
-        <v>154</v>
+        <v>160</v>
+      </c>
+      <c r="E57" t="s">
+        <v>19</v>
       </c>
       <c r="H57" t="s">
-        <v>155</v>
+        <v>170</v>
+      </c>
+      <c r="I57" t="s">
+        <v>43</v>
+      </c>
+      <c r="J57" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="C58" t="s">
-        <v>142</v>
+        <v>174</v>
+      </c>
+      <c r="E58" t="s">
+        <v>19</v>
       </c>
       <c r="H58" t="s">
-        <v>155</v>
-      </c>
-      <c r="I58" t="s">
-        <v>157</v>
-      </c>
-      <c r="J58" t="s">
-        <v>158</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="C59" t="s">
-        <v>160</v>
+        <v>176</v>
+      </c>
+      <c r="D59" t="s">
+        <v>177</v>
+      </c>
+      <c r="E59" t="s">
+        <v>19</v>
       </c>
       <c r="H59" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="C60" t="s">
-        <v>163</v>
+        <v>180</v>
+      </c>
+      <c r="E60" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B62" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="C62" t="s">
-        <v>165</v>
+        <v>182</v>
+      </c>
+      <c r="E62" t="s">
+        <v>19</v>
       </c>
       <c r="H62" t="s">
-        <v>428</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="B63" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="C63" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="E63" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F63" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H63" t="s">
-        <v>428</v>
+        <v>183</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B64" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="C64" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="D64" t="s">
-        <v>171</v>
+        <v>189</v>
+      </c>
+      <c r="E64" t="s">
+        <v>19</v>
       </c>
       <c r="H64" t="s">
-        <v>432</v>
+        <v>190</v>
       </c>
       <c r="I64" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="J64" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="B65" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="C65" t="s">
-        <v>176</v>
+        <v>195</v>
+      </c>
+      <c r="E65" t="s">
+        <v>19</v>
       </c>
       <c r="G65" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H65" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="B66" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="C66" t="s">
-        <v>180</v>
+        <v>199</v>
+      </c>
+      <c r="E66" t="s">
+        <v>19</v>
       </c>
       <c r="G66" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="H66" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="B67" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="C67" t="s">
-        <v>179</v>
+        <v>198</v>
+      </c>
+      <c r="E67" t="s">
+        <v>19</v>
       </c>
       <c r="G67" t="s">
         <v>2</v>
@@ -2808,163 +2876,190 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="B68" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="C68" t="s">
-        <v>185</v>
+        <v>204</v>
+      </c>
+      <c r="E68" t="s">
+        <v>19</v>
       </c>
       <c r="G68" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="B69" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="C69" t="s">
-        <v>188</v>
+        <v>207</v>
+      </c>
+      <c r="E69" t="s">
+        <v>19</v>
       </c>
       <c r="G69" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="B70" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="C70" t="s">
-        <v>190</v>
+        <v>209</v>
+      </c>
+      <c r="E70" t="s">
+        <v>19</v>
       </c>
       <c r="G70" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="B71" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="C71" t="s">
-        <v>192</v>
+        <v>211</v>
+      </c>
+      <c r="E71" t="s">
+        <v>19</v>
       </c>
       <c r="G71" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B73" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="C73" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="D73" t="s">
-        <v>196</v>
+        <v>215</v>
+      </c>
+      <c r="E73" t="s">
+        <v>19</v>
       </c>
       <c r="H73" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="I73" t="s">
-        <v>198</v>
+        <v>43</v>
       </c>
       <c r="J73" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B74" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="C74" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="D74" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="E74" t="s">
+        <v>19</v>
       </c>
       <c r="H74" t="s">
-        <v>428</v>
+        <v>183</v>
       </c>
       <c r="I74" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J74" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B75" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="C75" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="D75" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="E75" t="s">
+        <v>19</v>
       </c>
       <c r="H75" t="s">
-        <v>428</v>
+        <v>183</v>
       </c>
       <c r="I75" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B76" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="C76" t="s">
-        <v>205</v>
+        <v>223</v>
+      </c>
+      <c r="E76" t="s">
+        <v>19</v>
       </c>
       <c r="H76" t="s">
-        <v>428</v>
+        <v>183</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="C77" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="D77" t="s">
-        <v>208</v>
+        <v>226</v>
+      </c>
+      <c r="E77" t="s">
+        <v>19</v>
       </c>
       <c r="H77" t="s">
-        <v>433</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -2974,17 +3069,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C138"/>
+  <dimension ref="A1:C119"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A136" sqref="A136"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2995,1509 +3088,1300 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="C2" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="C3" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="C4" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="C5" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>237</v>
       </c>
       <c r="B6" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="C6" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>237</v>
       </c>
       <c r="B7" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="C7" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="C8" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="C9" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="C10" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="C11" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="C12" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="C13" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="C14" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="C15" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="C16" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="C17" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C18" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>175</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C19" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>175</v>
+        <v>260</v>
       </c>
       <c r="B20" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="C20" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>175</v>
+        <v>260</v>
       </c>
       <c r="B21" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="C21" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>175</v>
+        <v>260</v>
       </c>
       <c r="B22" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="C22" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>183</v>
+        <v>260</v>
       </c>
       <c r="B23" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="C23" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>183</v>
+        <v>260</v>
       </c>
       <c r="B24" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="C24" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>260</v>
       </c>
       <c r="B25" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="C25" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>260</v>
       </c>
       <c r="B26" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="C26" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>260</v>
       </c>
       <c r="B27" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="C27" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="B28" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="C28" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="C29" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="B30" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C30" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="B31" t="s">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="C31" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="B32" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="C32" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="B33" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="C33" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="B34" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="C34" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="B35" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="C35" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="B36" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="C36" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="B37" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="C37" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="B38" t="s">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="C38" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>251</v>
+        <v>300</v>
       </c>
       <c r="B39" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="C39" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>251</v>
+        <v>300</v>
       </c>
       <c r="B40" t="s">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="C40" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>251</v>
+        <v>300</v>
       </c>
       <c r="B41" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="C41" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>251</v>
+        <v>300</v>
       </c>
       <c r="B42" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="C42" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>251</v>
+        <v>300</v>
       </c>
       <c r="B43" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="C43" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>251</v>
+        <v>89</v>
       </c>
       <c r="B44" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="C44" t="s">
-        <v>288</v>
+        <v>311</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>251</v>
+        <v>89</v>
       </c>
       <c r="B45" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="C45" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>251</v>
+        <v>89</v>
       </c>
       <c r="B46" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="C46" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>293</v>
+        <v>89</v>
       </c>
       <c r="B47" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="C47" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>293</v>
+        <v>89</v>
       </c>
       <c r="B48" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="C48" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>293</v>
+        <v>89</v>
       </c>
       <c r="B49" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="C49" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>293</v>
+        <v>89</v>
       </c>
       <c r="B50" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="C50" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>293</v>
+        <v>89</v>
       </c>
       <c r="B51" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="C51" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B52" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="C52" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B53" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="C53" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="B54" t="s">
-        <v>306</v>
+        <v>238</v>
       </c>
       <c r="C54" t="s">
-        <v>306</v>
+        <v>239</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="B55" t="s">
-        <v>307</v>
+        <v>240</v>
       </c>
       <c r="C55" t="s">
-        <v>307</v>
+        <v>241</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="B56" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="C56" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="B57" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="C57" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="B58" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="C58" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="B59" t="s">
-        <v>314</v>
+        <v>238</v>
       </c>
       <c r="C59" t="s">
-        <v>315</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="B60" t="s">
-        <v>316</v>
+        <v>240</v>
       </c>
       <c r="C60" t="s">
-        <v>317</v>
+        <v>241</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B61" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="C61" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B62" t="s">
-        <v>245</v>
+        <v>335</v>
       </c>
       <c r="C62" t="s">
-        <v>246</v>
+        <v>336</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B63" t="s">
-        <v>247</v>
+        <v>337</v>
       </c>
       <c r="C63" t="s">
-        <v>248</v>
+        <v>338</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>320</v>
+        <v>118</v>
       </c>
       <c r="B64" t="s">
-        <v>245</v>
+        <v>339</v>
       </c>
       <c r="C64" t="s">
-        <v>246</v>
+        <v>340</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>320</v>
+        <v>118</v>
       </c>
       <c r="B65" t="s">
-        <v>247</v>
+        <v>341</v>
       </c>
       <c r="C65" t="s">
-        <v>248</v>
+        <v>342</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B66" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="C66" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B67" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="C67" t="s">
-        <v>324</v>
+        <v>346</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B68" t="s">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="C68" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>327</v>
+        <v>118</v>
       </c>
       <c r="B69" t="s">
-        <v>245</v>
+        <v>349</v>
       </c>
       <c r="C69" t="s">
-        <v>246</v>
+        <v>350</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>327</v>
+        <v>118</v>
       </c>
       <c r="B70" t="s">
-        <v>247</v>
+        <v>351</v>
       </c>
       <c r="C70" t="s">
-        <v>248</v>
+        <v>352</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="B71" t="s">
-        <v>245</v>
+        <v>353</v>
       </c>
       <c r="C71" t="s">
-        <v>246</v>
+        <v>354</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="B72" t="s">
-        <v>247</v>
+        <v>355</v>
       </c>
       <c r="C72" t="s">
-        <v>248</v>
+        <v>356</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B73" t="s">
-        <v>328</v>
+        <v>357</v>
       </c>
       <c r="C73" t="s">
-        <v>329</v>
+        <v>358</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B74" t="s">
-        <v>330</v>
+        <v>359</v>
       </c>
       <c r="C74" t="s">
-        <v>331</v>
+        <v>360</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B75" t="s">
-        <v>332</v>
+        <v>361</v>
       </c>
       <c r="C75" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B76" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="C76" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B77" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="C77" t="s">
-        <v>337</v>
+        <v>365</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B78" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="C78" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B79" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="C79" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B80" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="C80" t="s">
-        <v>343</v>
+        <v>371</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="B81" t="s">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="C81" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="B82" t="s">
-        <v>346</v>
+        <v>374</v>
       </c>
       <c r="C82" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="B83" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="C83" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="B84" t="s">
-        <v>350</v>
+        <v>378</v>
       </c>
       <c r="C84" t="s">
-        <v>351</v>
+        <v>379</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="B85" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="C85" t="s">
-        <v>353</v>
+        <v>381</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="B86" t="s">
-        <v>354</v>
+        <v>382</v>
       </c>
       <c r="C86" t="s">
-        <v>355</v>
+        <v>382</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="B87" t="s">
-        <v>356</v>
+        <v>383</v>
       </c>
       <c r="C87" t="s">
-        <v>356</v>
+        <v>384</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="B88" t="s">
-        <v>357</v>
+        <v>385</v>
       </c>
       <c r="C88" t="s">
-        <v>358</v>
+        <v>386</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="B89" t="s">
-        <v>359</v>
+        <v>387</v>
       </c>
       <c r="C89" t="s">
-        <v>360</v>
+        <v>388</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="B90" t="s">
-        <v>361</v>
+        <v>389</v>
       </c>
       <c r="C90" t="s">
-        <v>362</v>
+        <v>390</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="B91" t="s">
-        <v>363</v>
+        <v>391</v>
       </c>
       <c r="C91" t="s">
-        <v>364</v>
+        <v>391</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B92" t="s">
-        <v>365</v>
+        <v>392</v>
       </c>
       <c r="C92" t="s">
-        <v>366</v>
+        <v>393</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B93" t="s">
-        <v>367</v>
+        <v>394</v>
       </c>
       <c r="C93" t="s">
-        <v>368</v>
+        <v>395</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B94" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="C94" t="s">
-        <v>370</v>
+        <v>397</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B95" t="s">
-        <v>371</v>
+        <v>398</v>
       </c>
       <c r="C95" t="s">
-        <v>372</v>
+        <v>399</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B96" t="s">
-        <v>373</v>
+        <v>400</v>
       </c>
       <c r="C96" t="s">
-        <v>374</v>
+        <v>401</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B97" t="s">
-        <v>375</v>
+        <v>402</v>
       </c>
       <c r="C97" t="s">
-        <v>376</v>
+        <v>402</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>112</v>
+        <v>403</v>
       </c>
       <c r="B98" t="s">
-        <v>377</v>
+        <v>238</v>
       </c>
       <c r="C98" t="s">
-        <v>377</v>
+        <v>239</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>112</v>
+        <v>403</v>
       </c>
       <c r="B99" t="s">
-        <v>378</v>
+        <v>240</v>
       </c>
       <c r="C99" t="s">
-        <v>379</v>
+        <v>241</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="B100" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="C100" t="s">
-        <v>381</v>
+        <v>405</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="B101" t="s">
-        <v>382</v>
+        <v>406</v>
       </c>
       <c r="C101" t="s">
-        <v>383</v>
+        <v>407</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="B102" t="s">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="C102" t="s">
-        <v>385</v>
+        <v>409</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="B103" t="s">
-        <v>386</v>
+        <v>410</v>
       </c>
       <c r="C103" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>387</v>
+        <v>145</v>
       </c>
       <c r="B104" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="C104" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>387</v>
+        <v>145</v>
       </c>
       <c r="B105" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="C105" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>387</v>
+        <v>156</v>
       </c>
       <c r="B106" t="s">
-        <v>390</v>
+        <v>238</v>
       </c>
       <c r="C106" t="s">
-        <v>390</v>
+        <v>239</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>391</v>
+        <v>156</v>
       </c>
       <c r="B107" t="s">
-        <v>392</v>
+        <v>240</v>
       </c>
       <c r="C107" t="s">
-        <v>392</v>
+        <v>241</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>391</v>
+        <v>163</v>
       </c>
       <c r="B108" t="s">
-        <v>393</v>
+        <v>238</v>
       </c>
       <c r="C108" t="s">
-        <v>393</v>
+        <v>239</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>391</v>
+        <v>163</v>
       </c>
       <c r="B109" t="s">
-        <v>394</v>
+        <v>240</v>
       </c>
       <c r="C109" t="s">
-        <v>394</v>
+        <v>241</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>395</v>
+        <v>166</v>
       </c>
       <c r="B110" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C110" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>395</v>
+        <v>166</v>
       </c>
       <c r="B111" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C111" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>118</v>
+        <v>185</v>
       </c>
       <c r="B112" t="s">
-        <v>396</v>
+        <v>238</v>
       </c>
       <c r="C112" t="s">
-        <v>397</v>
+        <v>239</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>118</v>
+        <v>185</v>
       </c>
       <c r="B113" t="s">
-        <v>398</v>
+        <v>240</v>
       </c>
       <c r="C113" t="s">
-        <v>399</v>
+        <v>241</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>118</v>
+        <v>194</v>
       </c>
       <c r="B114" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="C114" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>118</v>
+        <v>194</v>
       </c>
       <c r="B115" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="C115" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>118</v>
+        <v>194</v>
       </c>
       <c r="B116" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="C116" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>118</v>
+        <v>194</v>
       </c>
       <c r="B117" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="C117" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>407</v>
+        <v>202</v>
       </c>
       <c r="B118" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C118" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>407</v>
+        <v>202</v>
       </c>
       <c r="B119" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C119" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>124</v>
-      </c>
-      <c r="B120" t="s">
-        <v>408</v>
-      </c>
-      <c r="C120" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>124</v>
-      </c>
-      <c r="B121" t="s">
-        <v>410</v>
-      </c>
-      <c r="C121" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>124</v>
-      </c>
-      <c r="B122" t="s">
-        <v>412</v>
-      </c>
-      <c r="C122" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>136</v>
-      </c>
-      <c r="B123" t="s">
-        <v>414</v>
-      </c>
-      <c r="C123" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>136</v>
-      </c>
-      <c r="B124" t="s">
-        <v>416</v>
-      </c>
-      <c r="C124" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>136</v>
-      </c>
-      <c r="B125" t="s">
-        <v>418</v>
-      </c>
-      <c r="C125" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>136</v>
-      </c>
-      <c r="B126" t="s">
-        <v>420</v>
-      </c>
-      <c r="C126" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>139</v>
-      </c>
-      <c r="B127" t="s">
-        <v>245</v>
-      </c>
-      <c r="C127" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>139</v>
-      </c>
-      <c r="B128" t="s">
-        <v>247</v>
-      </c>
-      <c r="C128" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>148</v>
-      </c>
-      <c r="B129" t="s">
-        <v>245</v>
-      </c>
-      <c r="C129" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>148</v>
-      </c>
-      <c r="B130" t="s">
-        <v>247</v>
-      </c>
-      <c r="C130" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>151</v>
-      </c>
-      <c r="B131" t="s">
-        <v>245</v>
-      </c>
-      <c r="C131" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>151</v>
-      </c>
-      <c r="B132" t="s">
-        <v>247</v>
-      </c>
-      <c r="C132" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>167</v>
-      </c>
-      <c r="B133" t="s">
-        <v>245</v>
-      </c>
-      <c r="C133" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>167</v>
-      </c>
-      <c r="B134" t="s">
-        <v>247</v>
-      </c>
-      <c r="C134" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>66</v>
-      </c>
-      <c r="B135" t="s">
-        <v>245</v>
-      </c>
-      <c r="C135" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>66</v>
-      </c>
-      <c r="B136" t="s">
-        <v>247</v>
-      </c>
-      <c r="C136" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>427</v>
-      </c>
-      <c r="B137" t="s">
-        <v>245</v>
-      </c>
-      <c r="C137" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>427</v>
-      </c>
-      <c r="B138" t="s">
-        <v>247</v>
-      </c>
-      <c r="C138" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
